--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il1f10-Il1r1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il1f10-Il1r1.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.75675498262458</v>
+        <v>2.949544333333333</v>
       </c>
       <c r="H2">
-        <v>2.75675498262458</v>
+        <v>8.848633</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,34 +555,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.0938989622304</v>
+        <v>17.785488</v>
       </c>
       <c r="N2">
-        <v>11.0938989622304</v>
+        <v>53.356464</v>
       </c>
       <c r="O2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="P2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="Q2">
-        <v>30.58316124086231</v>
+        <v>52.459085345968</v>
       </c>
       <c r="R2">
-        <v>30.58316124086231</v>
+        <v>472.131768113712</v>
       </c>
       <c r="S2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
       <c r="T2">
-        <v>0.09634759792068325</v>
+        <v>0.1438794224342548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.75675498262458</v>
+        <v>2.949544333333333</v>
       </c>
       <c r="H3">
-        <v>2.75675498262458</v>
+        <v>8.848633</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -617,34 +617,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>94.394598473686</v>
+        <v>95.39815</v>
       </c>
       <c r="N3">
-        <v>94.394598473686</v>
+        <v>286.19445</v>
       </c>
       <c r="O3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="P3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="Q3">
-        <v>260.2227796751804</v>
+        <v>281.3810727429833</v>
       </c>
       <c r="R3">
-        <v>260.2227796751804</v>
+        <v>2532.42965468685</v>
       </c>
       <c r="S3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
       <c r="T3">
-        <v>0.819792288589455</v>
+        <v>0.7717432731278673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.75675498262458</v>
+        <v>2.949544333333333</v>
       </c>
       <c r="H4">
-        <v>2.75675498262458</v>
+        <v>8.848633</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.194724622818158</v>
+        <v>0.2910066666666667</v>
       </c>
       <c r="N4">
-        <v>0.194724622818158</v>
+        <v>0.87302</v>
       </c>
       <c r="O4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="P4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
       <c r="Q4">
-        <v>0.5368080741936491</v>
+        <v>0.8583370646288889</v>
       </c>
       <c r="R4">
-        <v>0.5368080741936491</v>
+        <v>7.72503358166</v>
       </c>
       <c r="S4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886579</v>
       </c>
       <c r="T4">
-        <v>0.001691132191523825</v>
+        <v>0.002354159251886578</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.75675498262458</v>
+        <v>2.949544333333333</v>
       </c>
       <c r="H5">
-        <v>2.75675498262458</v>
+        <v>8.848633</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -741,34 +741,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.207630874724813</v>
+        <v>0.2256796666666666</v>
       </c>
       <c r="N5">
-        <v>0.207630874724813</v>
+        <v>0.6770389999999999</v>
       </c>
       <c r="O5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="P5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="Q5">
-        <v>0.5723874484443282</v>
+        <v>0.6656521819652221</v>
       </c>
       <c r="R5">
-        <v>0.5723874484443282</v>
+        <v>5.990869637686999</v>
       </c>
       <c r="S5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
       <c r="T5">
-        <v>0.001803219598629203</v>
+        <v>0.001825682831708365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.75675498262458</v>
+        <v>2.949544333333333</v>
       </c>
       <c r="H6">
-        <v>2.75675498262458</v>
+        <v>8.848633</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -803,34 +803,34 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.457031863670565</v>
+        <v>0.58116</v>
       </c>
       <c r="N6">
-        <v>0.457031863670565</v>
+        <v>1.74348</v>
       </c>
       <c r="O6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="P6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="Q6">
-        <v>1.259924867392028</v>
+        <v>1.71415718476</v>
       </c>
       <c r="R6">
-        <v>1.259924867392028</v>
+        <v>15.42741466284</v>
       </c>
       <c r="S6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
       <c r="T6">
-        <v>0.003969201665508877</v>
+        <v>0.004701415285422111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.75675498262458</v>
+        <v>2.949544333333333</v>
       </c>
       <c r="H7">
-        <v>2.75675498262458</v>
+        <v>8.848633</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -865,34 +865,34 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.79664606458693</v>
+        <v>9.332356333333333</v>
       </c>
       <c r="N7">
-        <v>8.79664606458693</v>
+        <v>27.997069</v>
       </c>
       <c r="O7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="P7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="Q7">
-        <v>24.25019786893492</v>
+        <v>27.52619873963078</v>
       </c>
       <c r="R7">
-        <v>24.25019786893492</v>
+        <v>247.735788656677</v>
       </c>
       <c r="S7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
       <c r="T7">
-        <v>0.07639656003419985</v>
+        <v>0.07549604706886086</v>
       </c>
     </row>
   </sheetData>
